--- a/4_classification&evaluation/output/context_integration/evaluation_precision_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_precision_standard_deviation.xlsx
@@ -1156,130 +1156,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8361151140958082</v>
+        <v>0.8238193031958776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02288060728251074</v>
+        <v>0.03381894895968136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8043864354252339</v>
+        <v>0.8024922457419601</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8320855614973262</v>
+        <v>0.7874026932376078</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8334070758518977</v>
+        <v>0.8262992831541218</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8347630091463109</v>
+        <v>0.8167783491766661</v>
       </c>
       <c r="H6" t="n">
-        <v>0.875933488558272</v>
+        <v>0.8861239446690317</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8226640132472383</v>
+        <v>0.8197978904605989</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03415662865691933</v>
+        <v>0.02807391593598027</v>
       </c>
       <c r="K6" t="n">
         <v>0.782099907493062</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8057903513311483</v>
+        <v>0.8074029465158497</v>
       </c>
       <c r="M6" t="n">
-        <v>0.832132383745287</v>
+        <v>0.8185147007303205</v>
       </c>
       <c r="N6" t="n">
-        <v>0.810158797531463</v>
+        <v>0.8226325905147783</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8831386261352305</v>
+        <v>0.8683393070489845</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7715510414696543</v>
+        <v>0.7630757257173136</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02445748184615439</v>
+        <v>0.0384425666860263</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7568063318013913</v>
+        <v>0.7630446345975949</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7718755895114129</v>
+        <v>0.738536368830899</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8012204672646099</v>
+        <v>0.7967229902713775</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7341204918454493</v>
+        <v>0.7055578829772378</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7937323269254078</v>
+        <v>0.8115167519094587</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8228227651648335</v>
+        <v>0.8115330914249327</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02210268866868598</v>
+        <v>0.01693252094512161</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8248902633153327</v>
+        <v>0.7920449863571701</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8016465392311031</v>
+        <v>0.8047962342317182</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8359094469460233</v>
+        <v>0.8156082467910425</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7958292603453894</v>
+        <v>0.8032887560181426</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8558383159863192</v>
+        <v>0.8419272337265902</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8211608850485754</v>
+        <v>0.8063140172651634</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02980240993818904</v>
+        <v>0.0192611199657048</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.8214924452667284</v>
+        <v>0.8007920906567992</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7846448607493488</v>
+        <v>0.7967701205604431</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.8281105990783411</v>
+        <v>0.8192683770357795</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.799503238382695</v>
+        <v>0.7794114631655178</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.8720532817657642</v>
+        <v>0.8353280349072776</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.8206326696415698</v>
+        <v>0.8217103988245121</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0480961114001044</v>
+        <v>0.04990396097340202</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.8114580455005986</v>
+        <v>0.784726443768997</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7367511520737327</v>
+        <v>0.7588538999829322</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.830041501603471</v>
+        <v>0.862072744585478</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.8417327315759353</v>
+        <v>0.8082329479613012</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.8831799174541111</v>
+        <v>0.8946659578238525</v>
       </c>
     </row>
     <row r="7">
@@ -1289,61 +1289,61 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8560606784491798</v>
+        <v>0.8580958377807846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04674557042512536</v>
+        <v>0.04104877307437271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8234415826801045</v>
+        <v>0.8463916884409605</v>
       </c>
       <c r="E7" t="n">
         <v>0.8132427843803055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8988609210383405</v>
+        <v>0.8958094160131512</v>
       </c>
       <c r="G7" t="n">
         <v>0.8191628660519104</v>
       </c>
       <c r="H7" t="n">
-        <v>0.925595238095238</v>
+        <v>0.9158724340175952</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8747590861838775</v>
+        <v>0.8755042041822045</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04130814676765234</v>
+        <v>0.04413844179317703</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8536052009456264</v>
+        <v>0.8626757496578326</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8238068289002074</v>
+        <v>0.8208922844746274</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9091537903082895</v>
+        <v>0.91711357246162</v>
       </c>
       <c r="N7" t="n">
-        <v>0.851223039678048</v>
+        <v>0.8408328432297273</v>
       </c>
       <c r="O7" t="n">
         <v>0.9360065710872163</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8405181121986848</v>
+        <v>0.8425791006061886</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03909004807232181</v>
+        <v>0.03757084580740404</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8332730728225097</v>
+        <v>0.8279323513366067</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8093255355339647</v>
+        <v>0.8170858943978888</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8211618876941458</v>
+        <v>0.829047192353644</v>
       </c>
       <c r="U7" t="n">
         <v>0.8216135449037026</v>
@@ -1352,16 +1352,16 @@
         <v>0.9172165200391006</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8840739423079615</v>
+        <v>0.8845616733037713</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04680006267974104</v>
+        <v>0.05169178699104997</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9017336786423145</v>
+        <v>0.8904086457277947</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.8010842518482587</v>
+        <v>0.7936049801924165</v>
       </c>
       <c r="AA7" t="n">
         <v>0.939882697947214</v>
@@ -1370,19 +1370,19 @@
         <v>0.8716279947179778</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.9060410883840425</v>
+        <v>0.9272840479334539</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.8661648814547099</v>
+        <v>0.8659991445317573</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03787416091161751</v>
+        <v>0.03365642527193489</v>
       </c>
       <c r="AF7" t="n">
         <v>0.8424762038073909</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.807856334384348</v>
+        <v>0.8175243215565795</v>
       </c>
       <c r="AH7" t="n">
         <v>0.9152600170502984</v>
@@ -1391,25 +1391,25 @@
         <v>0.8712226354416507</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.8940092165898617</v>
+        <v>0.8835125448028672</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.8692726364377155</v>
+        <v>0.8707042560563728</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.05013222806040102</v>
+        <v>0.04696120126963177</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.911520823334933</v>
+        <v>0.898923727759114</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7833382740004132</v>
+        <v>0.7836082933456348</v>
       </c>
       <c r="AO7" t="n">
         <v>0.9186488541327251</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.8447207230888446</v>
+        <v>0.8642058974127286</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.8881345076316612</v>
